--- a/Code/Summary Statistics Table.xlsx
+++ b/Code/Summary Statistics Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable Name</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Data Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Data Type</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Missing Values %</t>
         </is>
       </c>
     </row>
@@ -478,1563 +483,1740 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>5.97</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2.8</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGE_6</t>
+          <t>AHRSMAIN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>4.11</v>
-      </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>324.48</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G3" t="n">
+        <v>151.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGYOWNK</t>
+          <t>ATOTHRS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2.19</v>
-      </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>331.02</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G4" t="n">
+        <v>155.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHRSMAIN</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>324.48</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="E5" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>151.45</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ATOTHRS</t>
+          <t>COWMAIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>331.02</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="E6" t="n">
-        <v>990</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>155.58</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AVAILABL</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>EFAMTYPE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.78</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COWMAIN</t>
+          <t>ESTSIZE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.72</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DURJLESS</t>
+          <t>FINALWT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="D10" t="n">
+        <v>313.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3403</v>
+      </c>
+      <c r="G10" t="n">
+        <v>288.18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DURUNEMP</t>
+          <t>FIRMSIZE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EDUC</t>
+          <t>FTPTMAIN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3.84</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EFAMTYPE</t>
+          <t>HRLYEARN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5.06</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>34.34</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>5.77</v>
       </c>
       <c r="F13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>216.35</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESTSIZE</t>
+          <t>IMMIG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2.22</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVERWORK</t>
+          <t>LFSSTAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FINALWT</t>
+          <t>MARSTAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>313.95</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="E16" t="n">
-        <v>3403</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>288.18</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIRMSIZE</t>
+          <t>MJH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3.01</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FLOWUNEM</t>
+          <t>NAICS_21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FTPTLAST</t>
+          <t>NOC_10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FTPTMAIN</t>
+          <t>NOC_43</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.17</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>22.44</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HRLYEARN</t>
+          <t>PERMTEMP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>34.34</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>5.77</v>
+        <v>1.23</v>
       </c>
       <c r="E21" t="n">
-        <v>216.35</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HRSAWAY</t>
+          <t>PROV</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>14.31</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>34.56</v>
       </c>
       <c r="E22" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>46.68</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IMMIG</t>
+          <t>REC_NUM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2.69</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>55321.9</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>112082</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31946.93</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LFSSTAT</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.08</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LKANSADS</t>
+          <t>SURVMNTH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LKATADS</t>
+          <t>SURVYEAR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LKEMPLOY</t>
+          <t>TENURE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>240</v>
+      </c>
+      <c r="G27" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LKOTHERN</t>
+          <t>UHRSMAIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="D28" t="n">
+        <v>352.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>990</v>
+      </c>
+      <c r="G28" t="n">
+        <v>106.81</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LKPUBAG</t>
+          <t>UNION</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LKRELS</t>
+          <t>UTOTHRS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="D30" t="n">
+        <v>360.22</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>990</v>
+      </c>
+      <c r="G30" t="n">
+        <v>111.87</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MARSTAT</t>
+          <t>SCHOOLN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>2.9</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MJH</t>
+          <t>HRSAWAY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1.05</v>
-      </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>14.31</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G32" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NAICS_21</t>
+          <t>PAIDOT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>13.39</v>
-      </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>7.72</v>
       </c>
       <c r="E33" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G33" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NOC_10</t>
+          <t>UNPAIDOT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>5.11</v>
-      </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>6.54</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7.83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NOC_43</t>
+          <t>XTRAHRS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Continuous</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>22.44</v>
-      </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>14.26</v>
       </c>
       <c r="E35" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="G35" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAIDOT</t>
+          <t>AGYOWNK</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>7.72</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="E36" t="n">
-        <v>990</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>34.82</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H36" t="n">
+        <v>62.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAYAWAY</t>
+          <t>AGE_6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1.56</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4.11</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H37" t="n">
+        <v>77.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PERMTEMP</t>
+          <t>WHYPT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1.23</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>4.08</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H38" t="n">
+        <v>82.51000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PREVTEN</t>
+          <t>YAWAY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H39" t="n">
+        <v>87.73999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRIORACT</t>
+          <t>PAYAWAY</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>92.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PROV</t>
+          <t>WKSAWAY</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>34.56</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>15.12</v>
       </c>
       <c r="E41" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="H41" t="n">
+        <v>92.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REC_NUM</t>
+          <t>YABSENT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>55321.9</v>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>1.76</v>
       </c>
       <c r="E42" t="n">
-        <v>112082</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>31946.93</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H42" t="n">
+        <v>92.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SCHOOLN</t>
+          <t>AVAILABL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>DURJLESS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Discrete</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SURVMNTH</t>
+          <t>DURUNEMP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Discrete</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SURVYEAR</t>
+          <t>EVERWORK</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TENURE</t>
+          <t>FLOWUNEM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>240</v>
-      </c>
-      <c r="F47" t="n">
-        <v>82.76000000000001</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TLOLOOK</t>
+          <t>FTPTLAST</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UHRSMAIN</t>
+          <t>LKANSADS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>352.96</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>990</v>
-      </c>
-      <c r="F49" t="n">
-        <v>106.81</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UNEMFTPT</t>
+          <t>LKATADS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>UNION</t>
+          <t>LKEMPLOY</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UNPAIDOT</t>
+          <t>LKOTHERN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>990</v>
-      </c>
-      <c r="F52" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UTOTHRS</t>
+          <t>LKPUBAG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>360.22</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>990</v>
-      </c>
-      <c r="F53" t="n">
-        <v>111.87</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WHYLEFTN</t>
+          <t>LKRELS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WHYLEFTO</t>
+          <t>PREVTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WHYPT</t>
+          <t>PRIORACT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>WKSAWAY</t>
+          <t>TLOLOOK</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>99</v>
-      </c>
-      <c r="F57" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>XTRAHRS</t>
+          <t>UNEMFTPT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>990</v>
-      </c>
-      <c r="F58" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>YABSENT</t>
+          <t>WHYLEFTN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>YAWAY</t>
+          <t>WHYLEFTO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -2045,17 +2227,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Quanitative</t>
-        </is>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
